--- a/交互设计/卡牌.xlsx
+++ b/交互设计/卡牌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr.Orange\Desktop\交互设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\code\github\Card Chronicles：Prophecy\Card-Chronicles-Prophecy\Card-Chronicles-Prophecy\交互设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40451DB-73B9-4F19-A6A2-748A14882876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CA0E11-BC9D-4DE5-8C69-CF5642B02F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="26430" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="103">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,6 +415,14 @@
   <si>
     <t>将火弹扔向一名敌方，对其施加3层灼烧效果。</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -796,23 +804,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="143.625" customWidth="1"/>
-    <col min="5" max="5" width="66.125" customWidth="1"/>
-    <col min="6" max="6" width="166.125" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="143.58203125" customWidth="1"/>
+    <col min="5" max="5" width="66.08203125" customWidth="1"/>
+    <col min="6" max="6" width="166.08203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.6">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -834,8 +843,11 @@
       <c r="G1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="167.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H1" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="167.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -857,8 +869,11 @@
       <c r="G2" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
+      <c r="H2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -880,8 +895,11 @@
       <c r="G3" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+      <c r="H3" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -904,7 +922,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -926,8 +944,11 @@
       <c r="G5" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+      <c r="H5" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -949,8 +970,11 @@
       <c r="G6" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
+      <c r="H6" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -972,8 +996,11 @@
       <c r="G7" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
+      <c r="H7" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -995,8 +1022,11 @@
       <c r="G8" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
+      <c r="H8" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1019,7 +1049,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1042,7 +1072,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1065,7 +1095,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1088,7 +1118,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1110,8 +1140,11 @@
       <c r="G13" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
+      <c r="H13" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1133,8 +1166,11 @@
       <c r="G14" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
+      <c r="H14" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1156,8 +1192,11 @@
       <c r="G15" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H15" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1179,8 +1218,11 @@
       <c r="G16" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+      <c r="H16" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1202,8 +1244,11 @@
       <c r="G17" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+      <c r="H17" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1225,8 +1270,11 @@
       <c r="G18" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H18" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1248,8 +1296,11 @@
       <c r="G19" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
+      <c r="H19" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1271,8 +1322,11 @@
       <c r="G20" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.45">
+      <c r="H20" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="65" x14ac:dyDescent="0.65">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1295,7 +1349,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="65" x14ac:dyDescent="0.65">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1318,7 +1372,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1338,7 +1392,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1361,7 +1415,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1369,7 +1423,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1377,7 +1431,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1385,7 +1439,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1393,7 +1447,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1401,7 +1455,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1409,7 +1463,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1417,7 +1471,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1425,7 +1479,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1433,7 +1487,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1441,7 +1495,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1449,7 +1503,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1457,7 +1511,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1465,7 +1519,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1473,7 +1527,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1481,7 +1535,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1489,7 +1543,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1497,7 +1551,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1505,7 +1559,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1513,7 +1567,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1521,7 +1575,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1529,7 +1583,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1537,7 +1591,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1545,7 +1599,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1553,7 +1607,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>

--- a/交互设计/卡牌.xlsx
+++ b/交互设计/卡牌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\code\github\Card Chronicles：Prophecy\Card-Chronicles-Prophecy\Card-Chronicles-Prophecy\交互设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr.Orange\Desktop\历史资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CA0E11-BC9D-4DE5-8C69-CF5642B02F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3793067B-481B-422F-BFAF-EC0065B5AACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11430" yWindow="5520" windowWidth="22500" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="125">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,11 +417,99 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>是否完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
+    <t>英文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CalamityGone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>happy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>genshin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>song</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>untie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revival</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doppelganger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sacrifice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circlebeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disablebeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thunder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heavybeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sacrificebeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duantoutai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shenwei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poison</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -806,814 +894,866 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="143.58203125" customWidth="1"/>
-    <col min="5" max="5" width="66.08203125" customWidth="1"/>
-    <col min="6" max="6" width="166.08203125" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="143.625" customWidth="1"/>
+    <col min="6" max="6" width="66.125" customWidth="1"/>
+    <col min="7" max="7" width="166.125" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="167.25" customHeight="1" x14ac:dyDescent="0.65">
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="167.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="5">
         <v>3</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="5">
+      <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E12" s="5">
         <v>2</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="8">
+      <c r="E13" s="8">
         <v>1</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="G13" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="8">
+      <c r="E14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="8">
+      <c r="E15" s="8">
         <v>2</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="F15" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.65">
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="8">
+      <c r="E16" s="8">
         <v>2</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="F16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="G16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="8">
+      <c r="E17" s="8">
         <v>2</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="8">
+      <c r="E18" s="8">
         <v>2</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="F18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.65">
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="8">
+      <c r="E19" s="8">
         <v>2</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="G19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="8">
+      <c r="E20" s="8">
         <v>3</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="G20" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="65" x14ac:dyDescent="0.65">
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="3">
+      <c r="E21" s="3">
         <v>2</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="65" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="3">
+      <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="3">
+      <c r="E23" s="3">
         <v>3</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="3">
+      <c r="E24" s="3">
         <v>2</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/交互设计/卡牌.xlsx
+++ b/交互设计/卡牌.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr.Orange\Desktop\交互设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\code\github\Card-Chronicles-Prophecy\交互设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31131EA2-458E-4674-93FE-817953AC1F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DFD16F-DDAF-4EAA-A156-8EDE1C7C4FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12300" yWindow="3690" windowWidth="19140" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="145">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -586,6 +586,10 @@
   </si>
   <si>
     <t>使用卡牌后天气变为寒冬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -968,24 +972,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="20.25" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="143.625" customWidth="1"/>
-    <col min="6" max="6" width="66.125" customWidth="1"/>
-    <col min="7" max="7" width="166.125" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="143.58203125" customWidth="1"/>
+    <col min="6" max="6" width="66.08203125" customWidth="1"/>
+    <col min="7" max="7" width="166.08203125" customWidth="1"/>
+    <col min="8" max="8" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.6">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1011,706 +1016,784 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="167.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="167.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="5">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="5">
-        <v>3</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>139</v>
+      <c r="F2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
+      <c r="I2" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
       <c r="A3" s="5">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="E3" s="5">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+      <c r="I4" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
       <c r="A5" s="5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5">
+        <v>109</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="8">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>61</v>
+      <c r="F5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
+      <c r="A6" s="3">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="I6" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
+      <c r="A7" s="5">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
       <c r="B7" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>65</v>
+        <v>110</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
       <c r="A8" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
+      <c r="I8" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
       <c r="A9" s="5">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="5">
+        <v>115</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="8">
         <v>3</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>22</v>
+      <c r="F9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
       <c r="A10" s="5">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>23</v>
+        <v>114</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>25</v>
+        <v>95</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
       <c r="A11" s="5">
+        <v>3</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="G11" s="5" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I11" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A12" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="E12" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
+      <c r="I12" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
       <c r="A13" s="5">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="8">
+      <c r="E13" s="5">
         <v>1</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>85</v>
+      <c r="F13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
       <c r="A14" s="5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E14" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="8">
+      <c r="I14" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="65" x14ac:dyDescent="0.65">
+      <c r="A15" s="3">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A16" s="3">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="3">
         <v>2</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="7" t="s">
+      <c r="F16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="I16" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="5">
+        <v>3</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
+      <c r="A18" s="5">
+        <v>8</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="5">
+        <v>3</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A19" s="5">
+        <v>11</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="5">
         <v>2</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="F19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
+      <c r="A20" s="5">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="8">
         <v>2</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="8">
-        <v>2</v>
-      </c>
-      <c r="F18" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G20" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="8">
-        <v>2</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="8">
-        <v>3</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.45">
+      <c r="I20" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="1" customFormat="1" ht="65" x14ac:dyDescent="0.65">
+      <c r="A22" s="3">
+        <v>27</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.45">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="I22" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
+      <c r="A23" s="5">
+        <v>6</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="5">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="3">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.45">
+      <c r="F23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="65" x14ac:dyDescent="0.65">
       <c r="A24" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="E24" s="3">
         <v>2</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>94</v>
+        <v>128</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="1" customFormat="1" ht="65" x14ac:dyDescent="0.65">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="E25" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.45">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="I25" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
+      <c r="A26" s="5">
+        <v>15</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="8">
         <v>2</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
+      <c r="A27" s="5">
+        <v>7</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="1" customFormat="1" ht="65" x14ac:dyDescent="0.65">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.45">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.45">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" s="3">
-        <v>3</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1719,7 +1802,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1728,7 +1811,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1737,7 +1820,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1746,7 +1829,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1755,7 +1838,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1764,7 +1847,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1773,7 +1856,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1782,7 +1865,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1791,7 +1874,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1800,7 +1883,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1809,7 +1892,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1818,7 +1901,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1827,7 +1910,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1836,7 +1919,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1845,7 +1928,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1854,7 +1937,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1863,7 +1946,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1872,7 +1955,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1881,7 +1964,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1890,7 +1973,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1900,6 +1983,9 @@
       <c r="G49" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I49">
+    <sortCondition ref="B1:B49"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/交互设计/卡牌.xlsx
+++ b/交互设计/卡牌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\code\github\Card-Chronicles-Prophecy\交互设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DFD16F-DDAF-4EAA-A156-8EDE1C7C4FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611660F3-4DE2-4868-9216-6067AD979FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -976,7 +976,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I27" sqref="I27"/>
+      <selection pane="topRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1018,25 +1018,25 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="167.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>74</v>
+        <v>137</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>76</v>
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>33</v>
@@ -1047,54 +1047,54 @@
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
       <c r="A3" s="5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="8">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>85</v>
+        <v>97</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
       <c r="A4" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>33</v>
@@ -1103,58 +1103,58 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
       <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="G5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
-      <c r="A6" s="3">
-        <v>24</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="F6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -1163,28 +1163,28 @@
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
       <c r="A7" s="5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="8">
-        <v>2</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>72</v>
+        <v>102</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>144</v>
@@ -1192,25 +1192,25 @@
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
       <c r="A8" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>33</v>
@@ -1221,57 +1221,57 @@
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
       <c r="A9" s="5">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="8">
+        <v>104</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="5">
         <v>3</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>68</v>
+      <c r="F9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
       <c r="A10" s="5">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>49</v>
+        <v>105</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="8">
-        <v>2</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>144</v>
@@ -1279,25 +1279,25 @@
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
       <c r="A11" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="E11" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>33</v>
@@ -1308,25 +1308,25 @@
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A12" s="5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="E12" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>33</v>
@@ -1335,56 +1335,56 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
       <c r="A13" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="5">
+        <v>108</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="8">
         <v>1</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
-      <c r="A14" s="5">
-        <v>16</v>
-      </c>
       <c r="B14" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E14" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>52</v>
@@ -1393,29 +1393,29 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="65" x14ac:dyDescent="0.65">
-      <c r="A15" s="3">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="1" t="s">
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -1423,28 +1423,28 @@
       </c>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A16" s="3">
-        <v>23</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="8">
         <v>2</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="F16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -1453,28 +1453,28 @@
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
       <c r="A17" s="5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="5">
-        <v>3</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>140</v>
+        <v>112</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>144</v>
@@ -1482,28 +1482,28 @@
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
       <c r="A18" s="5">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="5">
-        <v>3</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>22</v>
+        <v>113</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="8">
+        <v>2</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>144</v>
@@ -1511,28 +1511,28 @@
     </row>
     <row r="19" spans="1:9" s="1" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A19" s="5">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>26</v>
+        <v>114</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="5">
+        <v>95</v>
+      </c>
+      <c r="E19" s="8">
         <v>2</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>29</v>
+      <c r="F19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>144</v>
@@ -1540,25 +1540,25 @@
     </row>
     <row r="20" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
       <c r="A20" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E20" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>52</v>
@@ -1567,27 +1567,30 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="65" x14ac:dyDescent="0.65">
       <c r="A21" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E21" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>144</v>
@@ -1595,112 +1598,109 @@
     </row>
     <row r="22" spans="1:9" s="1" customFormat="1" ht="65" x14ac:dyDescent="0.65">
       <c r="A22" s="3">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="3">
         <v>3</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
-      <c r="A23" s="5">
-        <v>6</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>33</v>
+      <c r="F23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" ht="65" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
       <c r="A24" s="3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="E24" s="3">
         <v>2</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>129</v>
+        <v>93</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" ht="65" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:9" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
       <c r="A25" s="3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="E25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>33</v>
@@ -1709,88 +1709,88 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
-      <c r="A26" s="5">
-        <v>15</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="8">
+    <row r="26" spans="1:9" s="1" customFormat="1" ht="65" x14ac:dyDescent="0.65">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="3">
         <v>2</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>52</v>
+      <c r="F26" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.65">
-      <c r="A27" s="5">
-        <v>7</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="5">
-        <v>1</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" s="7" t="s">
+    <row r="27" spans="1:9" s="1" customFormat="1" ht="65" x14ac:dyDescent="0.65">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="1" customFormat="1" ht="65" x14ac:dyDescent="0.65">
       <c r="A28" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E28" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="1" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
@@ -1984,7 +1984,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I49">
-    <sortCondition ref="B1:B49"/>
+    <sortCondition ref="A10:A49"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
